--- a/타이니팜매크로/화면크기.xlsx
+++ b/타이니팜매크로/화면크기.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agnus\Documents\Inflearn\타이니팜매크로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27A72978-D1AF-4A77-97D4-7F0DF56041F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B879D715-069C-475F-924A-498EC531AC16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{F99A6019-2A62-4C47-90B4-9FEAB336CF4C}"/>
+    <workbookView xWindow="5970" yWindow="1020" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F99A6019-2A62-4C47-90B4-9FEAB336CF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="모험가의 집" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>100, 70</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +102,38 @@
   </si>
   <si>
     <t>840, 420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400, 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450, 350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480, 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>560, 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>530, 350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>610, 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510, 220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>610, 320</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1F6733-7D75-4FFD-9392-99EDD3C61DD4}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -636,4 +669,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7A7B4A-76AA-4E9A-92E1-6C6862463385}">
+  <dimension ref="A2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/타이니팜매크로/화면크기.xlsx
+++ b/타이니팜매크로/화면크기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agnus\Documents\Inflearn\타이니팜매크로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B879D715-069C-475F-924A-498EC531AC16}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7553CC6-12F6-4627-96C2-DA6EE4DBF6E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="1020" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F99A6019-2A62-4C47-90B4-9FEAB336CF4C}"/>
+    <workbookView xWindow="10665" yWindow="2160" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F99A6019-2A62-4C47-90B4-9FEAB336CF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>100, 70</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,26 @@
   </si>
   <si>
     <t>610, 320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교배소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450, 320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720, 350</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,14 +693,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7A7B4A-76AA-4E9A-92E1-6C6862463385}">
-  <dimension ref="A2:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
@@ -709,6 +734,22 @@
       </c>
       <c r="B6" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/타이니팜매크로/화면크기.xlsx
+++ b/타이니팜매크로/화면크기.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agnus\Documents\Inflearn\타이니팜매크로\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7553CC6-12F6-4627-96C2-DA6EE4DBF6E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC33545-2158-4DD8-B093-88E61B693470}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10665" yWindow="2160" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{F99A6019-2A62-4C47-90B4-9FEAB336CF4C}"/>
+    <workbookView xWindow="6855" yWindow="4020" windowWidth="21600" windowHeight="11385" xr2:uid="{F99A6019-2A62-4C47-90B4-9FEAB336CF4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>100, 70</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,66 @@
   </si>
   <si>
     <t>720, 350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800, 70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>840, 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>럭키백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800, 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>840, 240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이웃농장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30, 480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70, 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알프레도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450, 170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>720, 250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아래쪽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>790, 330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>830, 370</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,15 +599,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1F6733-7D75-4FFD-9392-99EDD3C61DD4}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -555,27 +615,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>70170</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -590,16 +650,28 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -607,7 +679,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -615,7 +687,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -626,8 +698,14 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -636,8 +714,11 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -648,7 +729,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -656,12 +737,12 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -669,12 +750,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
@@ -682,6 +763,39 @@
       </c>
       <c r="H20" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -695,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7A7B4A-76AA-4E9A-92E1-6C6862463385}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
